--- a/R_prikazy_&_NÁVOD.xlsx
+++ b/R_prikazy_&_NÁVOD.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2004z\iCloudDrive\AAAVysoká Škola\2-ZS\PAS\Priprava_na_zapocet_PAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D11FED-DF81-4F0E-B06B-764F7BF9C6F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1865C67E-5BA9-48E8-86FC-D53569215CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prikazy_z_cviceni" sheetId="1" r:id="rId1"/>
+    <sheet name="Návody" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="322">
   <si>
     <t>Kategorie</t>
   </si>
@@ -758,12 +759,6 @@
   </si>
   <si>
     <t>dgeom(), pgeom()</t>
-  </si>
-  <si>
-    <t>Geometrické rozdělení: PMF / CDF.</t>
-  </si>
-  <si>
-    <t>pgeom(k, p)</t>
   </si>
   <si>
     <t>dhyper(), phyper()</t>
@@ -1196,6 +1191,90 @@
       </rPr>
       <t xml:space="preserve"> → (P(X &lt;= k ))</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Geometrické rozdělení: PMF / CDF. </t>
+  </si>
+  <si>
+    <t>pgeom(k, p) k = počet neúspěchů PŘED prvním úspěchem</t>
+  </si>
+  <si>
+    <t>Text v zadání</t>
+  </si>
+  <si>
+    <t>Matematicky</t>
+  </si>
+  <si>
+    <t>R zápis (obecně)</t>
+  </si>
+  <si>
+    <t>právě k</t>
+  </si>
+  <si>
+    <t>(P(X = k))</t>
+  </si>
+  <si>
+    <t>d...(k, ...)</t>
+  </si>
+  <si>
+    <t>nejvýše k</t>
+  </si>
+  <si>
+    <t>p...(k, ...)</t>
+  </si>
+  <si>
+    <t>menší než k</t>
+  </si>
+  <si>
+    <t>(P(X &lt; k))</t>
+  </si>
+  <si>
+    <t>p...(k-1, ...)</t>
+  </si>
+  <si>
+    <t>alespoň k</t>
+  </si>
+  <si>
+    <t>1 - p...(k-1, ...)</t>
+  </si>
+  <si>
+    <t>větší než k</t>
+  </si>
+  <si>
+    <t>(P(X &gt; k))</t>
+  </si>
+  <si>
+    <t>1 - p...(k, ...)</t>
+  </si>
+  <si>
+    <t>(P(X &lt;= k))</t>
+  </si>
+  <si>
+    <t>(P(X &gt;= k))</t>
+  </si>
+  <si>
+    <t>X &lt;= k</t>
+  </si>
+  <si>
+    <t>X &gt;= k</t>
+  </si>
+  <si>
+    <t>R zápis</t>
+  </si>
+  <si>
+    <t>pnorm(k, mean, sd)</t>
+  </si>
+  <si>
+    <t>1 - pnorm(k, mean, sd)</t>
+  </si>
+  <si>
+    <t>mezi a a b</t>
+  </si>
+  <si>
+    <t>a &lt;= X &lt;= b</t>
+  </si>
+  <si>
+    <t>pnorm(b, mean, sd) - pnorm(a, mean, sd)</t>
   </si>
 </sst>
 </file>
@@ -1285,7 +1364,97 @@
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1312,15 +1481,39 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1FB98539-1919-4F58-A740-AA0D35AE0CC2}" name="Tabulka2" displayName="Tabulka2" ref="A100:D110" totalsRowShown="0">
-  <autoFilter ref="A100:D110" xr:uid="{1FB98539-1919-4F58-A740-AA0D35AE0CC2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7F2C5E75-89AB-4E96-BF25-2FD47465B971}" name="Tabulka24" displayName="Tabulka24" ref="A1:D11" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:D11" xr:uid="{7F2C5E75-89AB-4E96-BF25-2FD47465B971}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F1E281C3-9746-459A-8A7F-5F8DDA460F17}" name="Krok"/>
-    <tableColumn id="2" xr3:uid="{3AE147CD-678D-42BD-AE69-2A2B2539297E}" name="Rozhodovací otázka"/>
-    <tableColumn id="3" xr3:uid="{9359C94A-CAFF-4AA1-80B1-05A5575910A1}" name="ANO →"/>
-    <tableColumn id="4" xr3:uid="{98724E49-D8C4-4AE0-8F40-EAB320198832}" name="NE →"/>
+    <tableColumn id="1" xr3:uid="{19C50194-F6DD-4954-B1FE-51EBA1E815CA}" name="Krok" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{9CE54427-D8F8-4B7A-8AEB-5E42FB9E388D}" name="Rozhodovací otázka" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{56C30631-DA0A-4833-A92A-581524FFE6F4}" name="ANO →" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{B52E8B25-0FFF-4820-8CD3-219E644C8FE3}" name="NE →" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B9CD4CC1-3381-40E2-935B-6AC149512CF0}" name="Tabulka4" displayName="Tabulka4" ref="A14:C19" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A14:C19" xr:uid="{B9CD4CC1-3381-40E2-935B-6AC149512CF0}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{884D717B-DD86-4252-A310-46BAE2ADA84D}" name="Text v zadání" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{C948175F-92EB-4981-8FF5-57E0E851452F}" name="Matematicky" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{760451E6-06B6-4801-9B4B-677C6672A838}" name="R zápis (obecně)" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B924F10C-F450-4C1F-8144-0E71B8DA1F37}" name="Tabulka5" displayName="Tabulka5" ref="A21:C26" totalsRowShown="0">
+  <autoFilter ref="A21:C26" xr:uid="{B924F10C-F450-4C1F-8144-0E71B8DA1F37}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{EC461A45-A67A-4A89-91BE-54B9946F3CAA}" name="Text v zadání"/>
+    <tableColumn id="2" xr3:uid="{5C068A9B-828D-4ED3-9A1B-BB7102C650AB}" name="Matematicky"/>
+    <tableColumn id="3" xr3:uid="{39767DCA-CA3C-408B-82F7-B1FF89455BE9}" name="R zápis"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1609,11 +1802,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D115"/>
+  <dimension ref="A1:D118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G91" sqref="G91"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2776,7 +2969,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" ht="30">
       <c r="A89" s="2" t="s">
         <v>235</v>
       </c>
@@ -2784,10 +2977,10 @@
         <v>245</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>246</v>
+        <v>294</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>247</v>
+        <v>295</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2795,13 +2988,13 @@
         <v>235</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2809,13 +3002,13 @@
         <v>235</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2823,36 +3016,36 @@
         <v>235</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="30">
       <c r="A93" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>291</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>293</v>
       </c>
       <c r="D93" s="2"/>
     </row>
     <row r="94" spans="1:4" ht="30">
       <c r="A94" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D94" s="2"/>
     </row>
@@ -2864,206 +3057,447 @@
     </row>
     <row r="96" spans="1:4" ht="14.25" customHeight="1">
       <c r="A96" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="D96" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>263</v>
-      </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="30">
-      <c r="A101" s="6">
-        <v>1</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="30">
-      <c r="A102" s="6">
-        <v>2</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="30">
-      <c r="A103" s="6">
-        <v>3</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="30">
-      <c r="A104" s="6">
-        <v>4</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="30">
-      <c r="A105" s="6">
-        <v>5</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>276</v>
-      </c>
+      <c r="A100" s="7"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="6"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="6"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="4"/>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="6"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="4"/>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="6"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="4"/>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="6"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="4"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="6">
-        <v>6</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="30">
-      <c r="A107" s="6">
-        <v>7</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>276</v>
-      </c>
+      <c r="A106" s="6"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="6"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="6">
-        <v>8</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="30">
-      <c r="A109" s="6">
-        <v>9</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>276</v>
-      </c>
+      <c r="A108" s="6"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="4"/>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="6"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="4"/>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="6">
-        <v>10</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>276</v>
-      </c>
+      <c r="A110" s="6"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="4"/>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
     </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="4"/>
-      <c r="B113" s="5"/>
-    </row>
-    <row r="114" spans="1:2">
+    <row r="113" spans="1:3">
+      <c r="A113" s="3"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114" s="4"/>
-      <c r="B114" s="5"/>
-    </row>
-    <row r="115" spans="1:2">
+      <c r="B114" s="4"/>
+      <c r="C114" s="5"/>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115" s="4"/>
-      <c r="B115" s="5"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="5"/>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="5"/>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="5"/>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAEE9653-E828-46C0-A25A-6C46EEE08CD9}">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="36.75" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="36.75" customHeight="1">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="48.75" customHeight="1">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="36.75" customHeight="1">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="36.75" customHeight="1">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="36.75" customHeight="1">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="36.75" customHeight="1">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="36.75" customHeight="1">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="36.75" customHeight="1">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="36.75" customHeight="1">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="36.75" customHeight="1">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="60">
+      <c r="A14" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30">
+      <c r="A15" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="60">
+      <c r="A17" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="60">
+      <c r="A19" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
   </tableParts>

--- a/R_prikazy_&_NÁVOD.xlsx
+++ b/R_prikazy_&_NÁVOD.xlsx
@@ -8,20 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2004z\iCloudDrive\AAAVysoká Škola\2-ZS\PAS\Priprava_na_zapocet_PAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1865C67E-5BA9-48E8-86FC-D53569215CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944B8E49-A0C6-43F8-BC77-9313DEEC5866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prikazy_z_cviceni" sheetId="1" r:id="rId1"/>
     <sheet name="Návody" sheetId="2" r:id="rId2"/>
+    <sheet name="GRAFY_ČTENÍ" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="364">
   <si>
     <t>Kategorie</t>
   </si>
@@ -117,15 +129,6 @@
   </si>
   <si>
     <t>round(x, 2)</t>
-  </si>
-  <si>
-    <t>sqrt()</t>
-  </si>
-  <si>
-    <t>Druhá odmocnina.</t>
-  </si>
-  <si>
-    <t>sqrt(x)</t>
   </si>
   <si>
     <t>ifelse()</t>
@@ -1078,32 +1081,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Chci </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>kvantil normálního rozdělení</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>?</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Studentovo </t>
     </r>
     <r>
@@ -1276,12 +1253,173 @@
   <si>
     <t>pnorm(b, mean, sd) - pnorm(a, mean, sd)</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chci </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kvantil normálního rozdělení</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>? % to z něčeho.. Jakou délku přesáhne alespon 25% kaprů</t>
+    </r>
+  </si>
+  <si>
+    <t>Graf</t>
+  </si>
+  <si>
+    <t>Pro jaký typ dat</t>
+  </si>
+  <si>
+    <t>Koukej na (checklist)</t>
+  </si>
+  <si>
+    <t>Co z toho vyvodit (typické věty)</t>
+  </si>
+  <si>
+    <t>Histogram</t>
+  </si>
+  <si>
+    <t>Číselná proměnná (jedna)</t>
+  </si>
+  <si>
+    <t>Tvar rozdělení (zvon / ploché / více špiček) Šikmost (ocas doprava = pravostranná, doleva = levostranná) Počet modusů Podezřelé sloupce na okrajích (outliery) Vliv šířky binů</t>
+  </si>
+  <si>
+    <t>Rozdělení je přibližně symetrické / pravostranně / levostranně šikmé. Hodnoty jsou koncentrovány kolem … . V datech jsou / nejsou patrné extrémní hodnoty. Rozdělení se (ne)podobá normálnímu.</t>
+  </si>
+  <si>
+    <t>Boxplot</t>
+  </si>
+  <si>
+    <t>Medián (čára v boxu) IQR = výška boxu (variabilita) Vousy Body mimo (odlehlé hodnoty) Poloha mediánu v boxu (náznak šikmosti)</t>
+  </si>
+  <si>
+    <t>Variabilita je nízká / střední / vysoká (dle IQR). Jsou / nejsou přítomny odlehlé hodnoty (zejména na … konci). Rozdělení působí spíše symetricky / šikmě.</t>
+  </si>
+  <si>
+    <t>QQ-plot</t>
+  </si>
+  <si>
+    <t>Číselná proměnná (kontrola normality)</t>
+  </si>
+  <si>
+    <t>Body na přímce = normalita Systematické prohnutí Odchylky v krajích (ocasy) = outliery / těžké ocasy Střed vs. konce</t>
+  </si>
+  <si>
+    <t>Proměnná je přibližně normální / normalita je porušena. Ve středu data odpovídají normalitě, v krajích jsou odchylky (často kvůli odlehlým hodnotám).</t>
+  </si>
+  <si>
+    <t>Barplot (sloupcový)</t>
+  </si>
+  <si>
+    <t>Kategorická proměnná</t>
+  </si>
+  <si>
+    <t>Nejčetnější kategorie Podíly Velmi malé kategorie Srovnání sloupců</t>
+  </si>
+  <si>
+    <t>Nejčastější je kategorie … (podíl přibližně …). Rozdělení kategorií je vyrovnané / dominuje jedna kategorie.</t>
+  </si>
+  <si>
+    <t>Koláčový graf (pie)</t>
+  </si>
+  <si>
+    <t>Podíly Dominance Nepřehlednost při mnoha kategoriích</t>
+  </si>
+  <si>
+    <t>Podíl kategorií: … . Pozn.: při mnoha kategoriích je vhodnější barplot.</t>
+  </si>
+  <si>
+    <t>Scatter plot (bodový)</t>
+  </si>
+  <si>
+    <t>2 číselné proměnné</t>
+  </si>
+  <si>
+    <t>Směr (přímá / nepřímá) Síla (těsnost kolem trendu) Tvar (lineární / nelineární) Shluky Odlehlé body</t>
+  </si>
+  <si>
+    <t>Proměnné mají přímou / nepřímou závislost, spíše slabou / střední / silnou. Vztah vypadá lineární / nelineární. Odlehlé hodnoty mohou ovlivnit závěr.</t>
+  </si>
+  <si>
+    <t>Korelační koeficient (Pearson r)</t>
+  </si>
+  <si>
+    <t>2 číselné proměnné (lineární vztah)</t>
+  </si>
+  <si>
+    <t>Znaménko (směr) Velikost |r| (síla) Citlivost na outliery Pouze pro lineární vztah</t>
+  </si>
+  <si>
+    <t>Korelace je přímá/nepřímá a slabá/střední/silná. Hodnota r popisuje míru lineární závislosti; při odlehlých hodnotách interpretovat opatrně.</t>
+  </si>
+  <si>
+    <t>Regresní přímka (lineární regrese)</t>
+  </si>
+  <si>
+    <t>Sedí/nesedí podle scatteru Sklon (změna Y při +1 v X) Odlehlé body Rozptyl kolem přímky</t>
+  </si>
+  <si>
+    <t>Při zvýšení X o 1 se očekává změna Y o … (koeficient). Model vztah (ne)vystihuje dobře; outliery mohou výrazně ovlivnit přímku.</t>
+  </si>
+  <si>
+    <t>Kontingenční tabulka</t>
+  </si>
+  <si>
+    <t>2 kategorické proměnné</t>
+  </si>
+  <si>
+    <t>Porovnání rozdělení v řádcích/sloupcích Kde jsou vysoké/nízké četnosti Viditelný vzor</t>
+  </si>
+  <si>
+    <t>Proměnné se jeví jako nezávislé / závislé: rozdělení kategorií se mezi skupinami liší (např. v oboru A převažuje …).</t>
+  </si>
+  <si>
+    <t>Mozaikový graf</t>
+  </si>
+  <si>
+    <t>Velikosti obdélníků (četnosti) Výrazné rozdíly mezi skupinami</t>
+  </si>
+  <si>
+    <t>Je patrný / není patrný vztah mezi proměnnými: některé kombinace jsou výrazně častější než jiné.</t>
+  </si>
+  <si>
+    <t>Graf intervalů spolehlivosti (CI)</t>
+  </si>
+  <si>
+    <t>Porovnání průměrů skupin</t>
+  </si>
+  <si>
+    <t>Průměr + 95% CI Překryv CI (jen orientačně) Velikost rozdílů</t>
+  </si>
+  <si>
+    <t>Průměry skupin se liší / neliší výrazně. Interval spolehlivosti ukazuje nejistotu odhadu.</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1308,8 +1446,21 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1319,6 +1470,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF1F4E79"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1F4E79"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1334,7 +1491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1360,11 +1517,137 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF1F4E79"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1468,8 +1751,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="RPrikazy" displayName="RPrikazy" ref="A1:D97">
-  <autoFilter ref="A1:D97" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="RPrikazy" displayName="RPrikazy" ref="A1:D96">
+  <autoFilter ref="A1:D96" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Kategorie"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Příkaz"/>
@@ -1481,25 +1764,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7F2C5E75-89AB-4E96-BF25-2FD47465B971}" name="Tabulka24" displayName="Tabulka24" ref="A1:D11" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7F2C5E75-89AB-4E96-BF25-2FD47465B971}" name="Tabulka24" displayName="Tabulka24" ref="A1:D11" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="A1:D11" xr:uid="{7F2C5E75-89AB-4E96-BF25-2FD47465B971}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{19C50194-F6DD-4954-B1FE-51EBA1E815CA}" name="Krok" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{9CE54427-D8F8-4B7A-8AEB-5E42FB9E388D}" name="Rozhodovací otázka" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{56C30631-DA0A-4833-A92A-581524FFE6F4}" name="ANO →" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{B52E8B25-0FFF-4820-8CD3-219E644C8FE3}" name="NE →" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{19C50194-F6DD-4954-B1FE-51EBA1E815CA}" name="Krok" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{9CE54427-D8F8-4B7A-8AEB-5E42FB9E388D}" name="Rozhodovací otázka" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{56C30631-DA0A-4833-A92A-581524FFE6F4}" name="ANO →" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{B52E8B25-0FFF-4820-8CD3-219E644C8FE3}" name="NE →" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B9CD4CC1-3381-40E2-935B-6AC149512CF0}" name="Tabulka4" displayName="Tabulka4" ref="A14:C19" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B9CD4CC1-3381-40E2-935B-6AC149512CF0}" name="Tabulka4" displayName="Tabulka4" ref="A14:C19" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A14:C19" xr:uid="{B9CD4CC1-3381-40E2-935B-6AC149512CF0}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{884D717B-DD86-4252-A310-46BAE2ADA84D}" name="Text v zadání" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{C948175F-92EB-4981-8FF5-57E0E851452F}" name="Matematicky" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{760451E6-06B6-4801-9B4B-677C6672A838}" name="R zápis (obecně)" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{884D717B-DD86-4252-A310-46BAE2ADA84D}" name="Text v zadání" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{C948175F-92EB-4981-8FF5-57E0E851452F}" name="Matematicky" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{760451E6-06B6-4801-9B4B-677C6672A838}" name="R zápis (obecně)" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1514,6 +1797,19 @@
     <tableColumn id="3" xr3:uid="{39767DCA-CA3C-408B-82F7-B1FF89455BE9}" name="R zápis"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{88004429-228B-4B5E-B3A9-5D4E6C713B72}" name="Tabulka6" displayName="Tabulka6" ref="B6:E17" totalsRowShown="0" headerRowDxfId="5" dataDxfId="0">
+  <autoFilter ref="B6:E17" xr:uid="{88004429-228B-4B5E-B3A9-5D4E6C713B72}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{59C5E9CA-966A-4C40-9921-C7F1CA243765}" name="Graf" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{8010202D-D1C0-4101-8C16-167C1403C84D}" name="Pro jaký typ dat" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{782B5D7B-FCF6-4BC5-AB66-3E8443AFA435}" name="Koukej na (checklist)" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{95E43524-9226-4017-99C3-B9FBC8B423CA}" name="Co z toho vyvodit (typické věty)" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1802,11 +2098,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D118"/>
+  <dimension ref="A1:D117"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D90" sqref="D90"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2070,28 +2366,28 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>60</v>
@@ -2105,7 +2401,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>63</v>
@@ -2119,7 +2415,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>66</v>
@@ -2128,26 +2424,26 @@
         <v>67</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>71</v>
@@ -2161,7 +2457,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>74</v>
@@ -2174,28 +2470,28 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>81</v>
@@ -2208,28 +2504,28 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>88</v>
@@ -2243,7 +2539,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>91</v>
@@ -2257,7 +2553,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>94</v>
@@ -2271,7 +2567,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>97</v>
@@ -2285,7 +2581,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>100</v>
@@ -2298,28 +2594,28 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B37" s="2" t="s">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+      <c r="D38" s="2" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>107</v>
@@ -2333,7 +2629,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>110</v>
@@ -2347,7 +2643,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>113</v>
@@ -2361,7 +2657,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>116</v>
@@ -2375,7 +2671,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>119</v>
@@ -2389,7 +2685,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>122</v>
@@ -2403,7 +2699,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>125</v>
@@ -2417,7 +2713,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>128</v>
@@ -2431,7 +2727,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>131</v>
@@ -2445,7 +2741,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>134</v>
@@ -2459,7 +2755,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>137</v>
@@ -2473,7 +2769,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>140</v>
@@ -2486,28 +2782,28 @@
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B51" s="2" t="s">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
+      <c r="D52" s="2" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>147</v>
@@ -2521,7 +2817,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>150</v>
@@ -2535,7 +2831,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>153</v>
@@ -2548,28 +2844,28 @@
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B56" s="2" t="s">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
+      <c r="D57" s="2" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>160</v>
@@ -2583,7 +2879,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>163</v>
@@ -2597,7 +2893,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>166</v>
@@ -2611,7 +2907,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>169</v>
@@ -2625,7 +2921,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>172</v>
@@ -2639,7 +2935,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>175</v>
@@ -2652,48 +2948,48 @@
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B64" s="2" t="s">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
+      <c r="D65" s="2" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B66" s="2" t="s">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="C67" s="2" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
+      <c r="D67" s="2" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>186</v>
@@ -2707,7 +3003,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>189</v>
@@ -2721,7 +3017,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>192</v>
@@ -2735,7 +3031,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>195</v>
@@ -2749,7 +3045,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>198</v>
@@ -2762,28 +3058,28 @@
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B73" s="2" t="s">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
+      <c r="D74" s="2" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>205</v>
@@ -2797,7 +3093,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>208</v>
@@ -2811,7 +3107,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>211</v>
@@ -2825,7 +3121,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>214</v>
@@ -2839,7 +3135,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>217</v>
@@ -2853,7 +3149,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>220</v>
@@ -2867,7 +3163,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>223</v>
@@ -2881,7 +3177,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>226</v>
@@ -2895,7 +3191,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>229</v>
@@ -2908,28 +3204,28 @@
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B84" s="2" t="s">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="B85" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
+      <c r="D85" s="2" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>236</v>
@@ -2943,7 +3239,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>239</v>
@@ -2955,37 +3251,37 @@
         <v>241</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" ht="30">
       <c r="A88" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>242</v>
       </c>
       <c r="C88" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="C89" s="2" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" ht="30">
-      <c r="A89" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B89" s="2" t="s">
+      <c r="D89" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>246</v>
@@ -2999,7 +3295,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>249</v>
@@ -3011,53 +3307,53 @@
         <v>251</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>254</v>
-      </c>
+    <row r="92" spans="1:4" ht="30">
+      <c r="A92" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D92" s="2"/>
     </row>
     <row r="93" spans="1:4" ht="30">
       <c r="A93" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="B93" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>291</v>
-      </c>
       <c r="D93" s="2"/>
     </row>
-    <row r="94" spans="1:4" ht="30">
-      <c r="A94" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>293</v>
-      </c>
+    <row r="94" spans="1:4">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
       <c r="D94" s="2"/>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
+      <c r="A95" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="96" spans="1:4" ht="14.25" customHeight="1">
       <c r="A96" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>256</v>
@@ -3069,30 +3365,22 @@
         <v>258</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>261</v>
-      </c>
+    <row r="99" spans="1:4">
+      <c r="A99" s="7"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="7"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
+      <c r="A100" s="6"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="6"/>
       <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
+      <c r="C101" s="5"/>
       <c r="D101" s="4"/>
     </row>
     <row r="102" spans="1:4">
@@ -3116,7 +3404,7 @@
     <row r="105" spans="1:4">
       <c r="A105" s="6"/>
       <c r="B105" s="4"/>
-      <c r="C105" s="5"/>
+      <c r="C105" s="4"/>
       <c r="D105" s="4"/>
     </row>
     <row r="106" spans="1:4">
@@ -3128,7 +3416,7 @@
     <row r="107" spans="1:4">
       <c r="A107" s="6"/>
       <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
+      <c r="C107" s="5"/>
       <c r="D107" s="4"/>
     </row>
     <row r="108" spans="1:4">
@@ -3143,20 +3431,19 @@
       <c r="C109" s="5"/>
       <c r="D109" s="4"/>
     </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="6"/>
-      <c r="B110" s="4"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="4"/>
+    <row r="111" spans="1:4">
+      <c r="A111" s="3"/>
+      <c r="B111" s="3"/>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="5"/>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="4"/>
@@ -3177,11 +3464,6 @@
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="5"/>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="4"/>
-      <c r="B118" s="4"/>
-      <c r="C118" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3196,8 +3478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAEE9653-E828-46C0-A25A-6C46EEE08CD9}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3205,21 +3487,21 @@
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="30.42578125" customWidth="1"/>
     <col min="3" max="3" width="40.85546875" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36.75" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="36.75" customHeight="1">
@@ -3227,13 +3509,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="48.75" customHeight="1">
@@ -3241,13 +3523,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="36.75" customHeight="1">
@@ -3255,13 +3537,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="36.75" customHeight="1">
@@ -3269,13 +3551,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="36.75" customHeight="1">
@@ -3283,13 +3565,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="36.75" customHeight="1">
@@ -3297,13 +3579,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="36.75" customHeight="1">
@@ -3311,13 +3593,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="36.75" customHeight="1">
@@ -3325,27 +3607,27 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="36.75" customHeight="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="53.25" customHeight="1">
       <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="36.75" customHeight="1">
@@ -3353,145 +3635,145 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="60">
       <c r="A14" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30">
       <c r="A15" s="4" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="60">
       <c r="A17" s="4" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60">
       <c r="A19" s="4" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -3502,4 +3784,198 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5346CDB1-0059-4347-91B9-3753BF648EEB}">
+  <dimension ref="B6:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="65.140625" customWidth="1"/>
+    <col min="5" max="5" width="49" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:9" ht="24.75" customHeight="1">
+      <c r="B6" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="60.75" customHeight="1">
+      <c r="B7" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="47.25" customHeight="1">
+      <c r="B8" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="47.25" customHeight="1">
+      <c r="B9" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="47.25" customHeight="1">
+      <c r="B10" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="47.25" customHeight="1">
+      <c r="B11" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="47.25" customHeight="1">
+      <c r="B12" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="47.25" customHeight="1">
+      <c r="B13" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="I13" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="47.25" customHeight="1">
+      <c r="B14" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="47.25" customHeight="1">
+      <c r="B15" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="47.25" customHeight="1">
+      <c r="B16" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="47.25" customHeight="1">
+      <c r="B17" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>362</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/R_prikazy_&_NÁVOD.xlsx
+++ b/R_prikazy_&_NÁVOD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2004z\iCloudDrive\AAAVysoká Škola\2-ZS\PAS\Priprava_na_zapocet_PAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944B8E49-A0C6-43F8-BC77-9313DEEC5866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7FE75D-7545-4014-BC8F-FEAE56B0E07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prikazy_z_cviceni" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="491">
   <si>
     <t>Kategorie</t>
   </si>
@@ -534,9 +534,6 @@
   </si>
   <si>
     <t>t.test()</t>
-  </si>
-  <si>
-    <t>t-test (1 výběr / 2 výběry / párový).</t>
   </si>
   <si>
     <t>t.test(x, mu = 0)</t>
@@ -850,12 +847,6 @@
     <t>Krok 7</t>
   </si>
   <si>
-    <t>dhyper()</t>
-  </si>
-  <si>
-    <t>Krok 3</t>
-  </si>
-  <si>
     <t>Krok 4</t>
   </si>
   <si>
@@ -959,32 +950,6 @@
   </si>
   <si>
     <t>Rozhodovací otázka</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Jsou </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>známé počty úspěchů a neúspěchů v populaci</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>?</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1414,12 +1379,405 @@
   <si>
     <t>S</t>
   </si>
+  <si>
+    <t>Modus (nejčastější hodnota).</t>
+  </si>
+  <si>
+    <t>Hodnota s nejvyšší četností; může jich být více nebo žádný.</t>
+  </si>
+  <si>
+    <t>Mode()      DescTools</t>
+  </si>
+  <si>
+    <t>Uložit hodnotu/výsledek do proměnné (např. ss3 &lt;- prij$ss3).</t>
+  </si>
+  <si>
+    <t>Ručně složit vektor hodnot (parametry, hranice intervalů).</t>
+  </si>
+  <si>
+    <t>Rychle vytvořit celočíselnou sekvenci pro indexy/osy (1:n).</t>
+  </si>
+  <si>
+    <t>Vybrat sloupec z data.frame (prij$zemprij).</t>
+  </si>
+  <si>
+    <t>Indexování: výběr prvků/řádků/sloupců (x[1:5], df[,2]).</t>
+  </si>
+  <si>
+    <t>Zjistit počet prvků (n) – kontrola velikosti vzorku.</t>
+  </si>
+  <si>
+    <t>Sečíst hodnoty/četnosti (např. kontrola, že četnosti dávají n).</t>
+  </si>
+  <si>
+    <t>Zjistit rozsah a extrémy (min/max) pro kontrolu dat.</t>
+  </si>
+  <si>
+    <t>Zaokrouhlit výsledky pro odevzdání (např. na 3 desetinná místa).</t>
+  </si>
+  <si>
+    <t>Vytvořit novou proměnnou podle podmínky (dummy/klasifikace).</t>
+  </si>
+  <si>
+    <t>Skládat texty (popisky, názvy grafů, hlášky do cat()).</t>
+  </si>
+  <si>
+    <t>Vytvořit číselnou posloupnost (osy, mřížka, generování hodnot).</t>
+  </si>
+  <si>
+    <t>Seřadit hodnoty (kontrola, ruční kvantily/median).</t>
+  </si>
+  <si>
+    <t>Vypsat všechny různé hodnoty (kategorie) v proměnné.</t>
+  </si>
+  <si>
+    <t>Převést na čísla před výpočty (mean, sd, cor…).</t>
+  </si>
+  <si>
+    <t>Převést na text pro popisky a spojování řetězců.</t>
+  </si>
+  <si>
+    <t>Nastavit kategoriální proměnnou pro tabulky, grafy a modely.</t>
+  </si>
+  <si>
+    <t>Načíst balíček (např. DescTools) před použitím jeho funkcí.</t>
+  </si>
+  <si>
+    <t>Načíst ukázková data z balíčku pro cvičení/testování.</t>
+  </si>
+  <si>
+    <t>Načíst uložená data/objekty ze souboru .RData.</t>
+  </si>
+  <si>
+    <t>Zkontrolovat, jaké objekty jsou v prostředí (co je načtené).</t>
+  </si>
+  <si>
+    <t>Smazat vybrané objekty (ať se nepletou staré výsledky).</t>
+  </si>
+  <si>
+    <t>Vyčistit celé prostředí před novým výpočtem/knitem.</t>
+  </si>
+  <si>
+    <t>Zajistit reprodukovatelnost náhody (bootstrap/simulace).</t>
+  </si>
+  <si>
+    <t>Vynutit výpis objektu (užitečné v cyklech / Rmd).</t>
+  </si>
+  <si>
+    <t>Vypsat formátovaný text jako odpověď (bez uvozovek).</t>
+  </si>
+  <si>
+    <t>Spočítat absolutní četnosti kategorií (frekvenční tabulka).</t>
+  </si>
+  <si>
+    <t>Přepočítat četnosti na relativní podíly (pravděpodobnosti/%).</t>
+  </si>
+  <si>
+    <t>Přidat součty řádků/sloupců do kontingenční tabulky.</t>
+  </si>
+  <si>
+    <t>Kumulativní četnosti/podíly (např. pro ogivu).</t>
+  </si>
+  <si>
+    <t>Spojit výsledky vedle sebe (např. abs. + rel. četnosti).</t>
+  </si>
+  <si>
+    <t>Sestavit tabulku pro export (např. do Excelu).</t>
+  </si>
+  <si>
+    <t>Rychlý souhrn proměnné (min, kvartily, medián, mean, max).</t>
+  </si>
+  <si>
+    <t>Odhad střední úrovně proměnné (průměr; citlivý na extrémy).</t>
+  </si>
+  <si>
+    <t>Robustní střed (vhodné při šikmém rozdělení).</t>
+  </si>
+  <si>
+    <t>Míra variability ve stejné jednotce jako data.</t>
+  </si>
+  <si>
+    <t>Rozptyl (variabilita; často jen mezikrok k sd).</t>
+  </si>
+  <si>
+    <t>Zjistit percentily/kvartily (např. Q1, Q3).</t>
+  </si>
+  <si>
+    <t>Variabilita středních 50 % dat (Q3 − Q1).</t>
+  </si>
+  <si>
+    <t>Tukeyho pětice (min, Q1, median, Q3, max) pro boxplot.</t>
+  </si>
+  <si>
+    <t>Robustní míra variability odolná vůči odlehlým hodnotám.</t>
+  </si>
+  <si>
+    <t>Relativní variabilita (SD/Mean) – porovnání proměnných.</t>
+  </si>
+  <si>
+    <t>Robustní odhad středu při výskytu odlehlých hodnot.</t>
+  </si>
+  <si>
+    <t>Určit směr rozdělení: &gt;0 pravostranné, &lt;0 levostranné.</t>
+  </si>
+  <si>
+    <t>Posoudit „špičatost/ocasatost“ rozdělení (oproti normálu).</t>
+  </si>
+  <si>
+    <t>Najít modus(y) – nejčastější hodnotu (hl. u diskrétních dat).</t>
+  </si>
+  <si>
+    <t>Interval spolehlivosti pro průměr (např. 95% CI).</t>
+  </si>
+  <si>
+    <t>Bootstrapový interval spolehlivosti (když nechceš předpoklady).</t>
+  </si>
+  <si>
+    <t>Intervaly spolehlivosti parametrů modelu (např. regrese).</t>
+  </si>
+  <si>
+    <t>Test/CI pro podíl (např. úspěšnost).</t>
+  </si>
+  <si>
+    <t>Test normality (Shapiro–Wilk) pro menší vzorky.</t>
+  </si>
+  <si>
+    <t>Test normality (Anderson–Darling), citlivý na chvosty.</t>
+  </si>
+  <si>
+    <t>Test normality (Lilliefors; KS s odhadem parametrů).</t>
+  </si>
+  <si>
+    <t>t-test průměru (1-výběr / 2-výběry / párově).</t>
+  </si>
+  <si>
+    <t>Kovariance – společná variabilita (základ pro korelaci).</t>
+  </si>
+  <si>
+    <t>Korelace: síla a směr lineární závislosti (r ∈ [-1,1]).</t>
+  </si>
+  <si>
+    <t>Test korelace (p-hodnota + interval spolehlivosti).</t>
+  </si>
+  <si>
+    <t>Lineární regrese (model Y ~ X, odhad trendu/predikce).</t>
+  </si>
+  <si>
+    <t>Histogram: tvar rozdělení, (a)symetrie, modální třídy.</t>
+  </si>
+  <si>
+    <t>Bodový graf: vztah dvou proměnných (trend, závislost).</t>
+  </si>
+  <si>
+    <t>Boxplot: medián, IQR a odlehlé hodnoty; porovnání skupin.</t>
+  </si>
+  <si>
+    <t>Sloupcový graf: četnosti kategorií/známek.</t>
+  </si>
+  <si>
+    <t>Koláčový graf: podíly kategorií (když je málo kategorií).</t>
+  </si>
+  <si>
+    <t>Odhad hustoty pro hladký tvar rozdělení (křivka).</t>
+  </si>
+  <si>
+    <t>Přidat křivku/čáru do existujícího grafu (např. density).</t>
+  </si>
+  <si>
+    <t>Přidat body do existujícího grafu (zvýraznit podmnožinu).</t>
+  </si>
+  <si>
+    <t>Přidat přímku (regrese, průměr, referenční čára).</t>
+  </si>
+  <si>
+    <t>Vykreslit teoretickou funkci (např. dnorm) přes graf.</t>
+  </si>
+  <si>
+    <t>Nastavit grafické parametry (okraje, rozložení apod.).</t>
+  </si>
+  <si>
+    <t>QQ-plot (DescTools): vizuální kontrola normality.</t>
+  </si>
+  <si>
+    <t>QQ-plot pro kontrolu normality (body proti normálu).</t>
+  </si>
+  <si>
+    <t>Referenční přímka do QQ-plotu (snadnější posouzení).</t>
+  </si>
+  <si>
+    <t>Označit konkrétní body (např. extrémy) textovým popiskem.</t>
+  </si>
+  <si>
+    <t>Přidat popisek do okraje grafu (poznámka, zdroj).</t>
+  </si>
+  <si>
+    <t>Normální rozdělení: hustota / DF / kvantil (pravděpodobnosti).</t>
+  </si>
+  <si>
+    <t>Binomické rozdělení: PMF / CDF (počty úspěchů).</t>
+  </si>
+  <si>
+    <t>Poissonovo rozdělení: PMF / CDF (počty výskytů).</t>
+  </si>
+  <si>
+    <t>Geometrické rozdělení: PMF / CDF (do 1. úspěchu).</t>
+  </si>
+  <si>
+    <t>Hypergeometrické rozdělení: PMF / CDF (bez vracení).</t>
+  </si>
+  <si>
+    <t>Kritická hodnota/kvantil t-rozdělení (CI, testy).</t>
+  </si>
+  <si>
+    <t>Kvantily lognormálního rozdělení (prahové hodnoty).</t>
+  </si>
+  <si>
+    <t>Použít pro P(X = k): pravděpodobnost konkrétní hodnoty.</t>
+  </si>
+  <si>
+    <t>Použít pro P(X ≤ k): kumulativní pravděpodobnost do k.</t>
+  </si>
+  <si>
+    <t>Aplikovat funkci na každý prvek seznamu (hromadné výpočty).</t>
+  </si>
+  <si>
+    <t>Počítat statistiku po skupinách (např. mean podle Pohlavi).</t>
+  </si>
+  <si>
+    <t>PŘÍKLAD NASAZENÍ/ UŽITÍ</t>
+  </si>
+  <si>
+    <t>Sapply</t>
+  </si>
+  <si>
+    <t>sapply(data.frame(x1, x2, ..,xn), F)</t>
+  </si>
+  <si>
+    <t>sapply(data.frame(matzem, meteo, geol, mat, stat), function(x) mean(x&lt;3))</t>
+  </si>
+  <si>
+    <t>CramerV()</t>
+  </si>
+  <si>
+    <t>Míra síly vztahu mezi kategoriálními proměnnými (DescTools).</t>
+  </si>
+  <si>
+    <t>wilcox.test()</t>
+  </si>
+  <si>
+    <t>Neparametrický test rozdílu poloh (2 skupiny).</t>
+  </si>
+  <si>
+    <t>var.test()</t>
+  </si>
+  <si>
+    <t>Test rovnosti rozptylů dvou výběrů.</t>
+  </si>
+  <si>
+    <t>aov()</t>
+  </si>
+  <si>
+    <t>Analýza rozptylu (ANOVA) – porovnání více průměrů.</t>
+  </si>
+  <si>
+    <t>kruskal.test()</t>
+  </si>
+  <si>
+    <t>Neparametrická alternativa k ANOVA.</t>
+  </si>
+  <si>
+    <t>Lineární regresní model.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CramerV(table(x, y)) – </t>
+  </si>
+  <si>
+    <t>0 slabý, 0.3 střední, 0.5 silný vztah.</t>
+  </si>
+  <si>
+    <t>wilcox.test(x ~ g) –</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> alternativa k t-testu při nenormalitě.</t>
+  </si>
+  <si>
+    <t>ověření předpokladu t-testu.</t>
+  </si>
+  <si>
+    <t>var.test(x, y) –</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aov(y ~ g) – </t>
+  </si>
+  <si>
+    <t>porovnání průměrů ve více skupinách.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kruskal.test(y ~ g) – </t>
+  </si>
+  <si>
+    <t>porovnání více skupin bez normality.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lm(y ~ x) – </t>
+  </si>
+  <si>
+    <t>model lineární závislosti a predikce.</t>
+  </si>
+  <si>
+    <t>p &lt; 0,05 → výsledek je statisticky významný</t>
+  </si>
+  <si>
+    <t>p ≥ 0,05 → nelze prokázat rozdíl / vztah</t>
+  </si>
+  <si>
+    <t>Normalitu nezamítáme 0.05 &lt;= p &lt; 0.05 normalitu zamítáme</t>
+  </si>
+  <si>
+    <t>Použití – jak se používá (kód)</t>
+  </si>
+  <si>
+    <t>hist(x) – základní zobrazení rozdělení číselné proměnné</t>
+  </si>
+  <si>
+    <t>boxplot(x) – medián, IQR a odlehlé hodnoty; boxplot(x ~ g) – porovnání skupin</t>
+  </si>
+  <si>
+    <t>PlotQQ(x) nebo qqnorm(x); qqline(x) – kontrola normality rozdělení</t>
+  </si>
+  <si>
+    <t>barplot(table(x)) – četnosti kategorií; barplot(prop.table(table(x))) – relativní četnosti</t>
+  </si>
+  <si>
+    <t>pie(table(x)) – podíly kategorií (pouze při malém počtu kategorií)</t>
+  </si>
+  <si>
+    <t>plot(x, y) – bodový graf pro vztah dvou číselných proměnných</t>
+  </si>
+  <si>
+    <t>cor(x, y) – síla a směr lineární závislosti; cor.test(x, y) – test významnosti</t>
+  </si>
+  <si>
+    <t>lm(y ~ x); abline(fit) – regresní přímka ve scatter plotu</t>
+  </si>
+  <si>
+    <t>table(x, y); chisq.test(table(x, y)) – kontingenční tabulka a test nezávislosti</t>
+  </si>
+  <si>
+    <t>mosaicplot(table(x, y)) – vizualizace závislosti kategorií</t>
+  </si>
+  <si>
+    <t>MeanCI(x); plot(MeanCI(x)) – interval spolehlivosti pro průměr</t>
+  </si>
+  <si>
+    <t>t-test (1 výběr / 2 výběry / párový). Num/kategorická</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1459,6 +1817,15 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1491,7 +1858,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1523,11 +1890,38 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1692,25 +2086,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1737,6 +2112,25 @@
     <dxf>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1751,21 +2145,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="RPrikazy" displayName="RPrikazy" ref="A1:D96">
-  <autoFilter ref="A1:D96" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="RPrikazy" displayName="RPrikazy" ref="A1:E108">
+  <autoFilter ref="A1:E108" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Kategorie"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Příkaz"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Popis"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Typický příklad"/>
+    <tableColumn id="5" xr3:uid="{7ACBDC64-BA8B-40F3-8F01-574596E6C27F}" name="PŘÍKLAD NASAZENÍ/ UŽITÍ"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7F2C5E75-89AB-4E96-BF25-2FD47465B971}" name="Tabulka24" displayName="Tabulka24" ref="A1:D11" totalsRowShown="0" headerRowDxfId="10">
-  <autoFilter ref="A1:D11" xr:uid="{7F2C5E75-89AB-4E96-BF25-2FD47465B971}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7F2C5E75-89AB-4E96-BF25-2FD47465B971}" name="Tabulka24" displayName="Tabulka24" ref="A1:D10" totalsRowShown="0" headerRowDxfId="15">
+  <autoFilter ref="A1:D10" xr:uid="{7F2C5E75-89AB-4E96-BF25-2FD47465B971}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{19C50194-F6DD-4954-B1FE-51EBA1E815CA}" name="Krok" dataDxfId="14"/>
     <tableColumn id="2" xr3:uid="{9CE54427-D8F8-4B7A-8AEB-5E42FB9E388D}" name="Rozhodovací otázka" dataDxfId="13"/>
@@ -1777,20 +2172,20 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B9CD4CC1-3381-40E2-935B-6AC149512CF0}" name="Tabulka4" displayName="Tabulka4" ref="A14:C19" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="A14:C19" xr:uid="{B9CD4CC1-3381-40E2-935B-6AC149512CF0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B9CD4CC1-3381-40E2-935B-6AC149512CF0}" name="Tabulka4" displayName="Tabulka4" ref="A13:C18" totalsRowShown="0" headerRowDxfId="10">
+  <autoFilter ref="A13:C18" xr:uid="{B9CD4CC1-3381-40E2-935B-6AC149512CF0}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{884D717B-DD86-4252-A310-46BAE2ADA84D}" name="Text v zadání" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{C948175F-92EB-4981-8FF5-57E0E851452F}" name="Matematicky" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{760451E6-06B6-4801-9B4B-677C6672A838}" name="R zápis (obecně)" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{884D717B-DD86-4252-A310-46BAE2ADA84D}" name="Text v zadání" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{C948175F-92EB-4981-8FF5-57E0E851452F}" name="Matematicky" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{760451E6-06B6-4801-9B4B-677C6672A838}" name="R zápis (obecně)" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B924F10C-F450-4C1F-8144-0E71B8DA1F37}" name="Tabulka5" displayName="Tabulka5" ref="A21:C26" totalsRowShown="0">
-  <autoFilter ref="A21:C26" xr:uid="{B924F10C-F450-4C1F-8144-0E71B8DA1F37}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B924F10C-F450-4C1F-8144-0E71B8DA1F37}" name="Tabulka5" displayName="Tabulka5" ref="A20:C25" totalsRowShown="0">
+  <autoFilter ref="A20:C25" xr:uid="{B924F10C-F450-4C1F-8144-0E71B8DA1F37}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{EC461A45-A67A-4A89-91BE-54B9946F3CAA}" name="Text v zadání"/>
     <tableColumn id="2" xr3:uid="{5C068A9B-828D-4ED3-9A1B-BB7102C650AB}" name="Matematicky"/>
@@ -1801,13 +2196,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{88004429-228B-4B5E-B3A9-5D4E6C713B72}" name="Tabulka6" displayName="Tabulka6" ref="B6:E17" totalsRowShown="0" headerRowDxfId="5" dataDxfId="0">
-  <autoFilter ref="B6:E17" xr:uid="{88004429-228B-4B5E-B3A9-5D4E6C713B72}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{88004429-228B-4B5E-B3A9-5D4E6C713B72}" name="Tabulka6" displayName="Tabulka6" ref="A1:E12" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E12" xr:uid="{88004429-228B-4B5E-B3A9-5D4E6C713B72}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{59C5E9CA-966A-4C40-9921-C7F1CA243765}" name="Graf" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{8010202D-D1C0-4101-8C16-167C1403C84D}" name="Pro jaký typ dat" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{782B5D7B-FCF6-4BC5-AB66-3E8443AFA435}" name="Koukej na (checklist)" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{95E43524-9226-4017-99C3-B9FBC8B423CA}" name="Co z toho vyvodit (typické věty)" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{77A8273A-1CA5-47EB-9DA5-928027B5ADCF}" name="Použití – jak se používá (kód)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2098,22 +2494,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D117"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
     <col min="3" max="3" width="58" customWidth="1"/>
-    <col min="4" max="4" width="44" customWidth="1"/>
+    <col min="4" max="4" width="68" customWidth="1"/>
+    <col min="5" max="5" width="53.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2126,8 +2523,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="9" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2140,8 +2540,11 @@
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="11" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2154,8 +2557,11 @@
       <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2168,8 +2574,11 @@
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="11" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2182,8 +2591,11 @@
       <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -2196,8 +2608,11 @@
       <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="11" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -2210,8 +2625,11 @@
       <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="11" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -2224,8 +2642,11 @@
       <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="11" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -2238,8 +2659,11 @@
       <c r="D9" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="11" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -2252,8 +2676,11 @@
       <c r="D10" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="11" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -2266,8 +2693,11 @@
       <c r="D11" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="11" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -2280,8 +2710,11 @@
       <c r="D12" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -2294,8 +2727,11 @@
       <c r="D13" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="11" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -2308,8 +2744,11 @@
       <c r="D14" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
@@ -2322,8 +2761,11 @@
       <c r="D15" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="11" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
@@ -2336,8 +2778,11 @@
       <c r="D16" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="11" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
@@ -2350,8 +2795,11 @@
       <c r="D17" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="11" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
@@ -2364,14 +2812,18 @@
       <c r="D18" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="11" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
         <v>56</v>
       </c>
@@ -2384,8 +2836,11 @@
       <c r="D20" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
         <v>56</v>
       </c>
@@ -2398,8 +2853,11 @@
       <c r="D21" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="11" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
         <v>56</v>
       </c>
@@ -2412,8 +2870,11 @@
       <c r="D22" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="11" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
         <v>56</v>
       </c>
@@ -2426,8 +2887,11 @@
       <c r="D23" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="11" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
         <v>56</v>
       </c>
@@ -2440,8 +2904,11 @@
       <c r="D24" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="11" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
         <v>56</v>
       </c>
@@ -2454,8 +2921,11 @@
       <c r="D25" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" s="11" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
         <v>56</v>
       </c>
@@ -2468,14 +2938,18 @@
       <c r="D26" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" s="11" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" s="12"/>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
         <v>77</v>
       </c>
@@ -2488,8 +2962,11 @@
       <c r="D28" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" s="11" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
         <v>77</v>
       </c>
@@ -2502,14 +2979,18 @@
       <c r="D29" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" s="11" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" s="12"/>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
         <v>84</v>
       </c>
@@ -2522,8 +3003,11 @@
       <c r="D31" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" s="11" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
         <v>84</v>
       </c>
@@ -2536,8 +3020,11 @@
       <c r="D32" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" s="11" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
         <v>84</v>
       </c>
@@ -2550,8 +3037,11 @@
       <c r="D33" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" s="11" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
         <v>84</v>
       </c>
@@ -2564,8 +3054,11 @@
       <c r="D34" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" s="11" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
         <v>84</v>
       </c>
@@ -2578,8 +3071,11 @@
       <c r="D35" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" s="11" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
         <v>84</v>
       </c>
@@ -2592,14 +3088,18 @@
       <c r="D36" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" s="11" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" s="12"/>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
         <v>103</v>
       </c>
@@ -2612,8 +3112,11 @@
       <c r="D38" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" s="11" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="2" t="s">
         <v>103</v>
       </c>
@@ -2626,8 +3129,11 @@
       <c r="D39" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" s="11" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
         <v>103</v>
       </c>
@@ -2640,8 +3146,11 @@
       <c r="D40" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" s="11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
         <v>103</v>
       </c>
@@ -2654,8 +3163,11 @@
       <c r="D41" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" s="11" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="2" t="s">
         <v>103</v>
       </c>
@@ -2668,8 +3180,11 @@
       <c r="D42" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" s="11" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
         <v>103</v>
       </c>
@@ -2682,8 +3197,11 @@
       <c r="D43" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" s="11" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="2" t="s">
         <v>103</v>
       </c>
@@ -2696,8 +3214,11 @@
       <c r="D44" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" s="11" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="2" t="s">
         <v>103</v>
       </c>
@@ -2710,8 +3231,11 @@
       <c r="D45" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" s="11" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="2" t="s">
         <v>103</v>
       </c>
@@ -2724,8 +3248,11 @@
       <c r="D46" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" s="11" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
         <v>103</v>
       </c>
@@ -2738,8 +3265,11 @@
       <c r="D47" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="2" t="s">
         <v>103</v>
       </c>
@@ -2752,8 +3282,11 @@
       <c r="D48" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" s="11" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="2" t="s">
         <v>103</v>
       </c>
@@ -2766,8 +3299,11 @@
       <c r="D49" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" s="11" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="2" t="s">
         <v>103</v>
       </c>
@@ -2780,690 +3316,975 @@
       <c r="D50" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E50" s="11" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="30">
+      <c r="A51" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="12"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="12"/>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>146</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E57" s="11" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="11"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="11"/>
+    </row>
+    <row r="60" spans="1:5" ht="30">
+      <c r="B60" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="E60" s="12"/>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>159</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>162</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="E67" s="11" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>156</v>
+      </c>
+      <c r="B68" t="s">
+        <v>452</v>
+      </c>
+      <c r="C68" t="s">
+        <v>453</v>
+      </c>
+      <c r="D68" t="s">
+        <v>463</v>
+      </c>
+      <c r="E68" t="s">
+        <v>464</v>
+      </c>
+      <c r="H68" s="13"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>156</v>
+      </c>
+      <c r="B69" t="s">
+        <v>454</v>
+      </c>
+      <c r="C69" t="s">
+        <v>455</v>
+      </c>
+      <c r="D69" t="s">
+        <v>465</v>
+      </c>
+      <c r="E69" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>156</v>
+      </c>
+      <c r="B70" t="s">
+        <v>456</v>
+      </c>
+      <c r="C70" t="s">
+        <v>457</v>
+      </c>
+      <c r="D70" t="s">
+        <v>468</v>
+      </c>
+      <c r="E70" t="s">
+        <v>467</v>
+      </c>
+      <c r="H70" s="13"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>156</v>
+      </c>
+      <c r="B71" t="s">
+        <v>458</v>
+      </c>
+      <c r="C71" t="s">
+        <v>459</v>
+      </c>
+      <c r="D71" t="s">
+        <v>469</v>
+      </c>
+      <c r="E71" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>156</v>
+      </c>
+      <c r="B72" t="s">
+        <v>460</v>
+      </c>
+      <c r="C72" t="s">
+        <v>461</v>
+      </c>
+      <c r="D72" t="s">
+        <v>471</v>
+      </c>
+      <c r="E72" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>156</v>
+      </c>
+      <c r="B73" t="s">
+        <v>178</v>
+      </c>
+      <c r="C73" t="s">
+        <v>462</v>
+      </c>
+      <c r="D73" t="s">
+        <v>473</v>
+      </c>
+      <c r="E73" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="12"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="2" t="s">
+      <c r="B75" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="C75" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="E75" s="11" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="12"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="2" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="2" t="s">
+      <c r="B77" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="E77" s="11" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B68" s="2" t="s">
+      <c r="C78" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="E78" s="11" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B69" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="E79" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B70" s="2" t="s">
+      <c r="C80" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="E80" s="11" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B71" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="E81" s="11" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B72" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="D82" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="E82" s="11" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="12"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="2" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="2" t="s">
+      <c r="B84" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="C84" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="D84" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="E84" s="11" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B75" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="E85" s="11" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B76" s="2" t="s">
+      <c r="C86" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="D86" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="E86" s="11" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B77" s="2" t="s">
+      <c r="C87" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="D87" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="E87" s="11" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B78" s="2" t="s">
+      <c r="C88" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="D88" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="E88" s="11" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B79" s="2" t="s">
+      <c r="C89" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="D89" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="E89" s="11" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B80" s="2" t="s">
+      <c r="C90" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="D90" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="E90" s="11" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B81" s="2" t="s">
+      <c r="C91" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="D91" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="E91" s="11" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B82" s="2" t="s">
+      <c r="C92" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="D92" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="E92" s="11" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B83" s="2" t="s">
+      <c r="C93" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="D93" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="30">
-      <c r="A88" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="30">
-      <c r="A92" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="D92" s="2"/>
-    </row>
-    <row r="93" spans="1:4" ht="30">
-      <c r="A93" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="D93" s="2"/>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="E93" s="11" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="E94" s="12"/>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A100" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="30">
+      <c r="A102" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" s="11" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="30">
+      <c r="A103" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" s="11" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="12"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="C105" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="D105" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="E105" s="11" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A96" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B96" s="2" t="s">
+      <c r="C106" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="D106" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="7"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="6"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="6"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="4"/>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="6"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="4"/>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="6"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="4"/>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="6"/>
-      <c r="B104" s="4"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="4"/>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="6"/>
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="6"/>
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="6"/>
-      <c r="B107" s="4"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="4"/>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="6"/>
-      <c r="B108" s="4"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="4"/>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="6"/>
-      <c r="B109" s="4"/>
-      <c r="C109" s="5"/>
-      <c r="D109" s="4"/>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="4"/>
+      <c r="E106" s="11" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>449</v>
+      </c>
+      <c r="B107" t="s">
+        <v>450</v>
+      </c>
+      <c r="D107" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="7"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="6"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="6"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="4"/>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="6"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="4"/>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="6"/>
       <c r="B113" s="4"/>
       <c r="C113" s="5"/>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="4"/>
+      <c r="D113" s="4"/>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="6"/>
       <c r="B114" s="4"/>
       <c r="C114" s="5"/>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="4"/>
+      <c r="D114" s="4"/>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="6"/>
       <c r="B115" s="4"/>
-      <c r="C115" s="5"/>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="6"/>
       <c r="B116" s="4"/>
-      <c r="C116" s="5"/>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="6"/>
       <c r="B117" s="4"/>
       <c r="C117" s="5"/>
+      <c r="D117" s="4"/>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="6"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="4"/>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="6"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="4"/>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="3"/>
+      <c r="B121" s="3"/>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="3"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="5"/>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="5"/>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="5"/>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="4"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="5"/>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="4"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3476,10 +4297,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAEE9653-E828-46C0-A25A-6C46EEE08CD9}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:D41"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3492,16 +4313,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="36.75" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="36.75" customHeight="1">
@@ -3509,49 +4330,49 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>262</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="48.75" customHeight="1">
       <c r="A3" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="36.75" customHeight="1">
       <c r="A4" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="36.75" customHeight="1">
       <c r="A5" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>267</v>
@@ -3562,218 +4383,205 @@
     </row>
     <row r="6" spans="1:4" ht="36.75" customHeight="1">
       <c r="A6" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>270</v>
+      <c r="C6" s="4" t="s">
+        <v>269</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="36.75" customHeight="1">
       <c r="A7" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="36.75" customHeight="1">
       <c r="A8" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>272</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="36.75" customHeight="1">
       <c r="A9" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>274</v>
+        <v>314</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="53.25" customHeight="1">
       <c r="A10" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>318</v>
+        <v>279</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="36.75" customHeight="1">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="60">
-      <c r="A14" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="36.75" customHeight="1"/>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="C14" s="3" t="s">
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="30">
-      <c r="A15" s="4" t="s">
+      <c r="B15" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>295</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="C16" s="5" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="4" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="60">
-      <c r="A17" s="4" t="s">
+      <c r="B17" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>300</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="B18" s="4" t="s">
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>309</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="60">
-      <c r="A19" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>310</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="4" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -3788,188 +4596,225 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5346CDB1-0059-4347-91B9-3753BF648EEB}">
-  <dimension ref="B6:I17"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="65.140625" customWidth="1"/>
-    <col min="5" max="5" width="49" customWidth="1"/>
+    <col min="1" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="65.140625" customWidth="1"/>
+    <col min="4" max="4" width="49" customWidth="1"/>
+    <col min="5" max="5" width="39.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:9" ht="24.75" customHeight="1">
-      <c r="B6" s="9" t="s">
+    <row r="1" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="60.75" customHeight="1">
+      <c r="A2" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" ht="60.75" customHeight="1">
+      <c r="E2" s="10" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="47.25" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="47.25" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="47.25" customHeight="1">
+      <c r="A5" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="47.25" customHeight="1">
+      <c r="A6" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="47.25" customHeight="1">
+      <c r="A7" s="10" t="s">
+        <v>337</v>
+      </c>
       <c r="B7" s="10" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="47.25" customHeight="1">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="47.25" customHeight="1">
+      <c r="A8" s="10" t="s">
+        <v>341</v>
+      </c>
       <c r="B8" s="10" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="47.25" customHeight="1">
+        <v>485</v>
+      </c>
+      <c r="H8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="47.25" customHeight="1">
+      <c r="A9" s="10" t="s">
+        <v>345</v>
+      </c>
       <c r="B9" s="10" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="47.25" customHeight="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="47.25" customHeight="1">
+      <c r="A10" s="10" t="s">
+        <v>348</v>
+      </c>
       <c r="B10" s="10" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="47.25" customHeight="1">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="47.25" customHeight="1">
+      <c r="A11" s="10" t="s">
+        <v>352</v>
+      </c>
       <c r="B11" s="10" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="47.25" customHeight="1">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="47.25" customHeight="1">
+      <c r="A12" s="10" t="s">
+        <v>355</v>
+      </c>
       <c r="B12" s="10" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="47.25" customHeight="1">
-      <c r="B13" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="I13" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="47.25" customHeight="1">
-      <c r="B14" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="47.25" customHeight="1">
-      <c r="B15" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="47.25" customHeight="1">
-      <c r="B16" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="47.25" customHeight="1">
-      <c r="B17" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>362</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
